--- a/student_mark.xlsx
+++ b/student_mark.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95945\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KBTC\OSD\kali\Zenchy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A14BDE-9BF1-47FF-AD6E-848CEFCE82FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA3344-218C-4DCA-8D2A-9468140DB10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6E1B30E-B2E7-4744-8C76-510FAD228EEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>skdgudqwid@gmail.com</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>:&gt;</t>
+  </si>
+  <si>
+    <t>:D</t>
+  </si>
+  <si>
+    <t>:/</t>
   </si>
 </sst>
 </file>
@@ -3188,10 +3200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA94225-1996-4AED-880C-AA3E5FAAB3DC}">
-  <dimension ref="A1:K226"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3204,7 +3217,7 @@
     <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3226,8 +3239,11 @@
       <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -3250,8 +3266,11 @@
       <c r="G2" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -3274,8 +3293,11 @@
       <c r="G3" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -3298,8 +3320,11 @@
       <c r="G4" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -3323,7 +3348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -3347,7 +3372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -3371,7 +3396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -3395,7 +3420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -3419,7 +3444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -3443,7 +3468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -3467,7 +3492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="5" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3495,7 +3520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3547,7 +3572,7 @@
         <v>91221</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7839,6 +7864,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F3DF568A380FE46AFD54396B381DD77" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b3b108c8973ece058d5cb2a28ae5275">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a20a522-0465-45c1-aca0-c6e056d1dbd2" xmlns:ns3="3cee7663-c00c-4c69-9484-37d3aa603b55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e8823f04b04d27ba6394eae3bfb1219" ns2:_="" ns3:_="">
     <xsd:import namespace="6a20a522-0465-45c1-aca0-c6e056d1dbd2"/>
@@ -8015,16 +8049,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C211013D-3EB2-4094-9943-6F3685EEE439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7140CD6F-7E8E-4498-9898-9DC3ED479691}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8041,12 +8074,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C211013D-3EB2-4094-9943-6F3685EEE439}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>